--- a/python_helpers/tests_data/matan.xlsx
+++ b/python_helpers/tests_data/matan.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t xml:space="preserve">№ теста</t>
   </si>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">36 км в час</t>
   </si>
   <si>
-    <t xml:space="preserve">Прочитай текст и выполни задания 6-15:(1) В детстве мне подарили кедровую шишку. (2) Я любил брать её вруки и рассматривать и всё удивлялся, какая она большая и тяжёлая –настоящий сундучок с орехами.(3) И вот через много лет попал я в Саяны и сразу отыскал кедр. (4)Растёт он высоко в горах, ветры его набок клонят, стараются к землепригнуть, скрючить.(5) А кедр вцепился корнями в землю и тянется всё выше и выше, веськосматый от зелёных веток. (6) На кончиках веток кедровые шишки висят.(7) Орешки ещё не поспели, но много вокруг зверьков и птиц живёт. (8) Кедрих всех кормит, вот они и ждут, когда поспеют орешки.(9) Белочка свалит шишку на землю, вынет орешки, да не все – один даостанется. (10) Этот орешек утащит к себе в норку мышь. (11) Она подеревьям лазить не умеет, а орешков ей тоже хочется.(12) Синицы весь день прыгают на кедре. (13) Издалека послушаешь –как будто весь кедр щебечет.(14) Осенью ещё больше зверьков на кедре живёт: кедровки, бурундукипо веткам так и скачут, прячут про запас орешки под камни и в землюзарывают.(15) И когда начнут падать с неба первые снежинки, на кедре совсем неостанется шишек.(16) А кедру не жалко. (17) Стоит он весь живой и тянется зелёнымиветками всё выше и выше к солнцу.(Геннадий Снегирёв)</t>
+    <t xml:space="preserve">&lt;details&gt; &lt;summary&gt;Нажмите сюда, чтобы открыть текст&lt;/summary&gt;&lt;p&gt;Прочитай текст и выполни задания 6-15:(1) В детстве мне подарили кедровую шишку. (2) Я любил брать её вруки и рассматривать и всё удивлялся, какая она большая и тяжёлая –настоящий сундучок с орехами.(3) И вот через много лет попал я в Саяны и сразу отыскал кедр. (4)Растёт он высоко в горах, ветры его набок клонят, стараются к землепригнуть, скрючить.(5) А кедр вцепился корнями в землю и тянется всё выше и выше, веськосматый от зелёных веток. (6) На кончиках веток кедровые шишки висят.(7) Орешки ещё не поспели, но много вокруг зверьков и птиц живёт. (8) Кедрих всех кормит, вот они и ждут, когда поспеют орешки.(9) Белочка свалит шишку на землю, вынет орешки, да не все – один даостанется. (10) Этот орешек утащит к себе в норку мышь. (11) Она подеревьям лазить не умеет, а орешков ей тоже хочется.(12) Синицы весь день прыгают на кедре. (13) Издалека послушаешь –как будто весь кедр щебечет.(14) Осенью ещё больше зверьков на кедре живёт: кедровки, бурундукипо веткам так и скачут, прячут про запас орешки под камни и в землюзарывают.(15) И когда начнут падать с неба первые снежинки, на кедре совсем неостанется шишек.(16) А кедру не жалко. (17) Стоит он весь живой и тянется зелёнымиветками всё выше и выше к солнцу.(Геннадий Снегирёв)&lt;/p&gt;&lt;/details&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Выбери значение слова «щебечет» (предложение 13)</t>
@@ -282,62 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve">прямоугольник, окружность, треугольник, круг, четырехугольник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прочитай текст и выполни задания 6-15:
-(1) В детстве мне подарили кедровую шишку. (2) Я любил брать её в
-руки и рассматривать и всё удивлялся, какая она большая и тяжёлая –
-настоящий сундучок с орехами.
-(3) И вот через много лет попал я в Саяны и сразу отыскал кедр. (4)
-Растёт он высоко в горах, ветры его набок клонят, стараются к земле
-пригнуть, скрючить.
-(5) А кедр вцепился корнями в землю и тянется всё выше и выше, весь
-косматый от зелёных веток. (6) На кончиках веток кедровые шишки висят.
-(7) Орешки ещё не поспели, но много вокруг зверьков и птиц живёт. (8) Кедр
-их всех кормит, вот они и ждут, когда поспеют орешки.
-(9) Белочка свалит шишку на землю, вынет орешки, да не все – один да
-останется. (10) Этот орешек утащит к себе в норку мышь. (11) Она по
-деревьям лазить не умеет, а орешков ей тоже хочется.
-(12) Синицы весь день прыгают на кедре. (13) Издалека послушаешь –
-как будто весь кедр щебечет.
-(14) Осенью ещё больше зверьков на кедре живёт: кедровки, бурундуки
-по веткам так и скачут, прячут про запас орешки под камни и в землю
-зарывают.
-(15) И когда начнут падать с неба первые снежинки, на кедре совсем не
-останется шишек.
-(16) А кедру не жалко. (17) Стоит он весь живой и тянется зелёными
-ветками всё выше и выше к солнцу.
-(Геннадий Снегирёв)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Из предложения 10 выпиши грамматическую основу.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мышь утащит.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На протяжении всей поездки средняя скорость Елены не изменялась.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">верно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Звезда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 мл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 кв.м</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70, 260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340000 кв. м</t>
   </si>
 </sst>
 </file>
@@ -348,7 +292,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -360,16 +304,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -421,6 +368,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -429,12 +377,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="AR PL UMing CN"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -493,7 +435,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -560,14 +502,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -583,17 +517,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -695,13 +619,13 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F8" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="61.99"/>
@@ -711,7 +635,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="33.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="33.71"/>
@@ -963,226 +887,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="597.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17"/>
     </row>
-    <row r="8" customFormat="false" ht="598" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>56</v>
-      </c>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17"/>
     </row>
-    <row r="9" customFormat="false" ht="1130.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="572.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="572.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="572.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="572.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1200,12 +917,9 @@
   <conditionalFormatting sqref="H6 J6">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
